--- a/G-.xlsx
+++ b/G-.xlsx
@@ -42,6 +42,9 @@
     <t>BEC</t>
   </si>
   <si>
+    <t>Pantoea sp.</t>
+  </si>
+  <si>
     <t>MU</t>
   </si>
   <si>
@@ -64,9 +67,6 @@
   </si>
   <si>
     <t>GB</t>
-  </si>
-  <si>
-    <t>(B) Pantoea sp.</t>
   </si>
   <si>
     <t>WPN</t>
@@ -2065,8 +2065,8 @@
   </sheetPr>
   <dimension ref="A1:L205"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A86" workbookViewId="0" tabSelected="1">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="67.5" defaultRowHeight="14.4"/>
@@ -2234,10 +2234,8 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>Pantoea sp.</t>
-        </is>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="F8" s="0"/>
       <c r="H8" s="4"/>
@@ -2267,13 +2265,13 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="0"/>
       <c r="H10" s="4"/>
@@ -2285,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="0"/>
       <c r="H11" s="4"/>
@@ -2303,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="0"/>
       <c r="H12" s="4"/>
@@ -2321,13 +2319,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" s="0"/>
       <c r="H13" s="4"/>
@@ -2339,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -2359,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -2379,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" s="0"/>
       <c r="H16" s="4"/>
@@ -2397,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2421,13 +2419,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" s="0"/>
       <c r="H18" s="4"/>
@@ -2439,13 +2437,13 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" s="0"/>
       <c r="H19" s="4"/>
@@ -2457,13 +2455,13 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" s="0"/>
       <c r="H20" s="4"/>
@@ -2475,13 +2473,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" s="0"/>
       <c r="H21" s="9"/>
@@ -2492,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" s="0"/>
       <c r="H22" s="9"/>
@@ -2509,13 +2507,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" s="0"/>
       <c r="H23" s="9"/>
@@ -2526,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" s="0"/>
       <c r="H24" s="4"/>
@@ -2544,13 +2542,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" s="0"/>
       <c r="H25" s="4"/>
@@ -2562,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26" s="0"/>
       <c r="H26" s="4"/>
@@ -2580,13 +2578,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" s="0"/>
       <c r="H27" s="4"/>
@@ -2598,13 +2596,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" s="0"/>
       <c r="H28" s="4"/>
@@ -2616,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29" s="0"/>
       <c r="H29" s="4"/>
@@ -2634,13 +2632,13 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="F30" s="0"/>
       <c r="H30" s="4"/>
@@ -2652,13 +2650,13 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31" s="0"/>
       <c r="H31" s="4"/>
@@ -2670,13 +2668,13 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32" s="0"/>
       <c r="H32" s="4"/>
@@ -2688,13 +2686,13 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F33" s="0"/>
       <c r="H33" s="4"/>
@@ -2706,13 +2704,13 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" s="0"/>
       <c r="H34" s="4"/>
@@ -2730,7 +2728,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F35" s="0"/>
       <c r="H35" s="4"/>
@@ -2748,7 +2746,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F36" s="0"/>
       <c r="H36" s="4"/>
@@ -2921,7 +2919,7 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>18</v>
@@ -2943,7 +2941,7 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" s="0"/>
       <c r="H45" s="9"/>
@@ -2957,7 +2955,7 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>18</v>
@@ -2979,7 +2977,7 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" s="0"/>
       <c r="H47" s="9"/>
@@ -2990,10 +2988,10 @@
         <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
@@ -3028,7 +3026,7 @@
         <v>19</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -3052,13 +3050,13 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F51" s="0"/>
       <c r="H51" s="4"/>
@@ -3094,7 +3092,7 @@
         <v>19</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -3116,7 +3114,7 @@
         <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
@@ -3160,7 +3158,7 @@
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
@@ -3200,7 +3198,7 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -3220,7 +3218,7 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -3238,7 +3236,7 @@
         <v>19</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
@@ -3262,7 +3260,7 @@
         <v>19</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -3286,10 +3284,10 @@
         <v>19</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
@@ -3310,10 +3308,10 @@
         <v>19</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
@@ -3334,10 +3332,10 @@
         <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>3</v>
@@ -3352,10 +3350,10 @@
         <v>19</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
@@ -3376,10 +3374,10 @@
         <v>19</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
@@ -3400,7 +3398,7 @@
         <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -3418,7 +3416,7 @@
         <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
@@ -3436,13 +3434,13 @@
         <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F69" s="0"/>
       <c r="H69" s="4"/>
@@ -3454,7 +3452,7 @@
         <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
@@ -3472,10 +3470,10 @@
         <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>3</v>
@@ -3490,10 +3488,10 @@
         <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
@@ -3510,7 +3508,7 @@
         <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -3530,10 +3528,10 @@
         <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D74" s="6" t="inlineStr">
         <is>
@@ -3550,7 +3548,7 @@
         <v>21</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
@@ -3572,7 +3570,7 @@
         <v>21</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -3591,7 +3589,7 @@
         <v>21</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -3635,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" s="6" t="inlineStr">
         <is>
@@ -3653,13 +3651,13 @@
         <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F80" s="0"/>
       <c r="H80" s="80"/>
@@ -3672,7 +3670,7 @@
         <v>21</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
@@ -3699,7 +3697,7 @@
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" s="93" t="s">
         <v>3</v>
@@ -3718,7 +3716,7 @@
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="97" t="s">
         <v>3</v>
@@ -3777,7 +3775,7 @@
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D86" s="107" t="s">
         <v>25</v>
@@ -3796,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D87" s="110" t="s">
         <v>3</v>
@@ -3850,7 +3848,7 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="119" t="s">
         <v>3</v>
@@ -3888,7 +3886,7 @@
         <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D92" s="125" t="s">
         <v>3</v>
@@ -3907,7 +3905,7 @@
         <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D93" s="128" t="s">
         <v>23</v>
@@ -3925,7 +3923,7 @@
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94" s="131" t="s">
         <v>3</v>
@@ -3997,7 +3995,7 @@
         <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" s="143" t="s">
         <v>3</v>
@@ -4016,7 +4014,7 @@
         <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99" s="146" t="s">
         <v>27</v>
@@ -4034,7 +4032,7 @@
         <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100" s="149" t="inlineStr">
         <is>
@@ -4154,7 +4152,7 @@
         <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106" s="167" t="s">
         <v>25</v>
@@ -4209,7 +4207,7 @@
         <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D109" s="173" t="s">
         <v>27</v>
@@ -4281,7 +4279,7 @@
         <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D113" s="185" t="s">
         <v>28</v>
@@ -4404,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D119" s="205" t="inlineStr">
         <is>
@@ -4425,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D120" s="208" t="s">
         <v>31</v>
@@ -4444,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D121" s="211" t="s">
         <v>3</v>
@@ -4501,7 +4499,7 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D124" s="219" t="s">
         <v>32</v>
@@ -4555,7 +4553,7 @@
         <v>29</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>4</v>
@@ -4676,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D133" s="246" t="s">
         <v>32</v>
@@ -4695,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D134" s="249" t="inlineStr">
         <is>
@@ -4737,7 +4735,7 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D136" s="255" t="s">
         <v>3</v>
@@ -4756,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D137" s="258" t="s">
         <v>3</v>
@@ -4810,7 +4808,7 @@
         <v>35</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C140" t="s">
         <v>4</v>
@@ -4831,7 +4829,7 @@
         <v>35</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C141" t="s">
         <v>4</v>
@@ -4911,7 +4909,7 @@
         <v>35</v>
       </c>
       <c r="B145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C145" t="s">
         <v>6</v>
@@ -4930,7 +4928,7 @@
         <v>35</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C146" t="s">
         <v>6</v>
@@ -4949,10 +4947,10 @@
         <v>35</v>
       </c>
       <c r="B147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D147" s="288" t="s">
         <v>38</v>
@@ -4968,10 +4966,10 @@
         <v>35</v>
       </c>
       <c r="B148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D148" s="291" t="s">
         <v>36</v>
@@ -4987,10 +4985,10 @@
         <v>35</v>
       </c>
       <c r="B149" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D149" s="294" t="s">
         <v>38</v>
@@ -5006,10 +5004,10 @@
         <v>35</v>
       </c>
       <c r="B150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D150" s="297" t="s">
         <v>36</v>
@@ -5025,10 +5023,10 @@
         <v>35</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D151" s="300" t="s">
         <v>36</v>
@@ -5044,10 +5042,10 @@
         <v>35</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D152" s="303" t="inlineStr">
         <is>
@@ -5065,10 +5063,10 @@
         <v>35</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D153" s="306" t="inlineStr">
         <is>
@@ -5089,7 +5087,7 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D154" s="309" t="s">
         <v>36</v>
@@ -5126,10 +5124,10 @@
         <v>35</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D156" s="315" t="s">
         <v>36</v>
@@ -5145,7 +5143,7 @@
         <v>35</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>6</v>
@@ -5164,7 +5162,7 @@
         <v>35</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
@@ -5183,7 +5181,7 @@
         <v>35</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>6</v>
@@ -5205,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D160" s="327" t="inlineStr">
         <is>
@@ -5222,10 +5220,10 @@
         <v>39</v>
       </c>
       <c r="B161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D161" s="330" t="inlineStr">
         <is>
@@ -5242,10 +5240,10 @@
         <v>39</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D162" s="333" t="inlineStr">
         <is>
@@ -5266,10 +5264,10 @@
         <v>39</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D163" s="336" t="inlineStr">
         <is>
@@ -5290,13 +5288,13 @@
         <v>39</v>
       </c>
       <c r="B164" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="339" t="s">
         <v>14</v>
-      </c>
-      <c r="C164" t="s">
-        <v>6</v>
-      </c>
-      <c r="D164" s="339" t="s">
-        <v>13</v>
       </c>
       <c r="F164" s="0"/>
       <c r="H164" s="339"/>
@@ -5308,7 +5306,7 @@
         <v>39</v>
       </c>
       <c r="B165" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
@@ -5328,7 +5326,7 @@
         <v>39</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C166" t="s">
         <v>4</v>
@@ -5348,7 +5346,7 @@
         <v>39</v>
       </c>
       <c r="B167" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C167" t="s">
         <v>4</v>
@@ -5368,7 +5366,7 @@
         <v>39</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>6</v>
@@ -5386,7 +5384,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>6</v>
@@ -5404,10 +5402,10 @@
         <v>39</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D170" s="355" t="inlineStr">
         <is>
@@ -5424,13 +5422,13 @@
         <v>39</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>4</v>
       </c>
       <c r="D171" s="27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E171" s="11"/>
       <c r="F171" s="0"/>
@@ -5446,7 +5444,7 @@
         <v>39</v>
       </c>
       <c r="B172" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C172" t="s">
         <v>6</v>
@@ -5467,7 +5465,7 @@
         <v>39</v>
       </c>
       <c r="B173" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C173" t="s">
         <v>6</v>
@@ -5487,7 +5485,7 @@
         <v>39</v>
       </c>
       <c r="B174" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C174" t="s">
         <v>6</v>
@@ -5507,10 +5505,10 @@
         <v>39</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D175" s="368" t="inlineStr">
         <is>
@@ -5531,10 +5529,10 @@
         <v>41</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D176" s="371" t="inlineStr">
         <is>
@@ -5555,10 +5553,10 @@
         <v>41</v>
       </c>
       <c r="B177" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D177" s="374" t="s">
         <v>42</v>
@@ -5573,10 +5571,10 @@
         <v>41</v>
       </c>
       <c r="B178" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D178" s="377" t="s">
         <v>42</v>
@@ -5591,10 +5589,10 @@
         <v>41</v>
       </c>
       <c r="B179" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D179" s="380" t="s">
         <v>42</v>
@@ -5609,7 +5607,7 @@
         <v>41</v>
       </c>
       <c r="B180" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C180" t="s">
         <v>4</v>
@@ -5629,7 +5627,7 @@
         <v>41</v>
       </c>
       <c r="B181" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C181" t="s">
         <v>4</v>
@@ -5649,7 +5647,7 @@
         <v>41</v>
       </c>
       <c r="B182" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C182" t="s">
         <v>4</v>
@@ -5670,10 +5668,10 @@
         <v>41</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D183" s="393" t="inlineStr">
         <is>
@@ -5694,10 +5692,10 @@
         <v>41</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D184" s="396" t="inlineStr">
         <is>
@@ -5718,10 +5716,10 @@
         <v>43</v>
       </c>
       <c r="B185" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D185" s="400" t="s">
         <v>44</v>
@@ -5736,7 +5734,7 @@
         <v>43</v>
       </c>
       <c r="B186" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C186" t="s">
         <v>4</v>
@@ -5756,13 +5754,13 @@
         <v>43</v>
       </c>
       <c r="B187" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C187" t="s">
         <v>4</v>
       </c>
       <c r="D187" s="339" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F187" s="0"/>
       <c r="H187" s="339"/>
@@ -5773,10 +5771,10 @@
         <v>43</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D188" s="406" t="s">
         <v>45</v>
@@ -5791,7 +5789,7 @@
         <v>43</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>6</v>
@@ -5809,10 +5807,10 @@
         <v>43</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D190" s="412" t="s">
         <v>44</v>
@@ -5827,10 +5825,10 @@
         <v>43</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D191" s="415" t="s">
         <v>44</v>
@@ -5848,7 +5846,7 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D192" s="418" t="s">
         <v>44</v>
@@ -5866,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D193" s="421" t="s">
         <v>44</v>
@@ -5881,7 +5879,7 @@
         <v>43</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>4</v>
@@ -5901,10 +5899,10 @@
         <v>43</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D195" s="427" t="s">
         <v>44</v>
